--- a/LatitudeLearning/src/main/java/com/qa/testdata/CourseListData.xlsx
+++ b/LatitudeLearning/src/main/java/com/qa/testdata/CourseListData.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="6675" windowHeight="4440" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="6675" windowHeight="4440" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Courselist" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCourse" sheetId="1" r:id="rId1"/>
     <sheet name="AddResource" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="SearchResource" sheetId="3" r:id="rId3"/>
+    <sheet name="AddOrganisation" sheetId="4" r:id="rId4"/>
+    <sheet name="SearchOrganisation" sheetId="5" r:id="rId5"/>
+    <sheet name="AddCategory" sheetId="6" r:id="rId6"/>
+    <sheet name="Edit category" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Code</t>
   </si>
@@ -39,46 +43,85 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
     <t>DeliveryMethod</t>
   </si>
   <si>
     <t>classroom</t>
   </si>
   <si>
-    <t>CSE04</t>
-  </si>
-  <si>
-    <t>Maths</t>
-  </si>
-  <si>
-    <t>It is Maths subject</t>
-  </si>
-  <si>
-    <t>Networking</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>It is the Resource of Networking</t>
-  </si>
-  <si>
     <t>ContactName</t>
   </si>
   <si>
-    <t>Divya</t>
-  </si>
-  <si>
     <t>ContactNumber</t>
   </si>
   <si>
     <t>File</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>OrganisationCode</t>
+  </si>
+  <si>
+    <t>OrganisationName</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>MINDSNXT Business Unit</t>
+  </si>
+  <si>
+    <t>Web Design</t>
+  </si>
+  <si>
+    <t>It s Good   subject</t>
+  </si>
+  <si>
+    <t>It is O/S Subject</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MindsNxt </t>
+  </si>
+  <si>
+    <t>It is science subject</t>
+  </si>
+  <si>
+    <t>CSE10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating System1 </t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is resource </t>
+  </si>
+  <si>
+    <t>Nidhi</t>
+  </si>
+  <si>
+    <t>LATI Division1</t>
+  </si>
+  <si>
+    <t>Minds NXT DV1</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>It is Java subject</t>
   </si>
 </sst>
 </file>
@@ -417,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -426,9 +469,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
@@ -436,7 +479,7 @@
     <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,22 +501,19 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>1000</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -483,9 +523,6 @@
       </c>
       <c r="G2" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -497,15 +534,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
@@ -516,33 +553,33 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>9876543210</v>
+        <v>9876543211</v>
       </c>
     </row>
   </sheetData>
@@ -552,12 +589,186 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>